--- a/Some data.xlsx
+++ b/Some data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225391D5-5BE6-47D1-BACC-FBE159E96F61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02AA984-8AF5-4F7D-BD09-5E2B5218955B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,15 +332,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1111</v>
       </c>
@@ -348,7 +348,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1112</v>
       </c>
@@ -356,7 +356,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1113</v>
       </c>
@@ -364,7 +364,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1114</v>
       </c>
@@ -372,7 +372,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1115</v>
       </c>
@@ -380,7 +380,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1116</v>
       </c>
@@ -388,23 +388,29 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1117</v>
       </c>
       <c r="B7">
         <v>2228</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>76543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1118</v>
       </c>
       <c r="B8">
         <v>2229</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1119</v>
       </c>
@@ -412,7 +418,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1120</v>
       </c>
@@ -420,7 +426,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1121</v>
       </c>
